--- a/biology/Zoologie/Citharinops_distichodoides/Citharinops_distichodoides.xlsx
+++ b/biology/Zoologie/Citharinops_distichodoides/Citharinops_distichodoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Citharinops distichodoides, unique représentant du genre Citharinops, est une espèce de poissons d'eau douce téléostéens de la famille des Citharinidae (ordre des Characiformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson se rencontre au Burkina Faso, au Cameroun, au Ghana, au Mali, au Nigeria et au Tchad[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson se rencontre au Burkina Faso, au Cameroun, au Ghana, au Mali, au Nigeria et au Tchad.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Citharinops distichodoides peut mesurer jusqu'à 84 cm, queue non comprise et son poids maximal enregistré est de 4,6 kg[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Citharinops distichodoides peut mesurer jusqu'à 84 cm, queue non comprise et son poids maximal enregistré est de 4,6 kg.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Citharinops distichodoides a été décrite pour la première fois en 1919 par Jacques Pellegrin sous le protonyme Citharinus disticoides. En 1962, Jacques Daget crée le genre Citharinops et l'y reclasse sous son taxon actuel, Citharinops distichodoides[3].
-Citharinops distichodoides a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Citharinops distichodoides a été décrite pour la première fois en 1919 par Jacques Pellegrin sous le protonyme Citharinus disticoides. En 1962, Jacques Daget crée le genre Citharinops et l'y reclasse sous son taxon actuel, Citharinops distichodoides.
+Citharinops distichodoides a pour synonymes :
 Citharinops distichodoides distichodoides (Pellegrin, 1919)
 Citharinops distichodoides thomasi (Pellegrin, 1924)
 Citharinus distichodoides Pellegrin, 1919
@@ -610,11 +628,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Citharinops, est la combinaison du genre Citharinus et du grec ancien ὤψ, ốps, « regard, vue, face » (dans le sens de qui ressemble) et lui a été donné initialement car créé à l'origine comme un sous-genre de Citharinus[4].
-L'épithète spécifique, distichodoides, est la combinaison du genre Distichodus suivi du suffixe du néo-latin –oides, « qui ressemble », et fait référence à la grande taille des écailles de cette espèce, plus proches de celles du genre Distichodus que de celles des autres espèces du genre Citharinus, genre dans lequel elle a été initialement classée[4].
-La sous-espèce Citharinops distichodoides thomasi, taxon désormais invalide[3], était nommée en l'honneur de Jean Thomas (1890–1932) qui a collecté des poissons pour le muséum national d'histoire naturelle en Afrique équatoriale, dont l'holotype de cette sous-espèce[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Citharinops, est la combinaison du genre Citharinus et du grec ancien ὤψ, ốps, « regard, vue, face » (dans le sens de qui ressemble) et lui a été donné initialement car créé à l'origine comme un sous-genre de Citharinus.
+L'épithète spécifique, distichodoides, est la combinaison du genre Distichodus suivi du suffixe du néo-latin –oides, « qui ressemble », et fait référence à la grande taille des écailles de cette espèce, plus proches de celles du genre Distichodus que de celles des autres espèces du genre Citharinus, genre dans lequel elle a été initialement classée.
+La sous-espèce Citharinops distichodoides thomasi, taxon désormais invalide, était nommée en l'honneur de Jean Thomas (1890–1932) qui a collecté des poissons pour le muséum national d'histoire naturelle en Afrique équatoriale, dont l'holotype de cette sous-espèce.
 </t>
         </is>
       </c>
@@ -643,7 +663,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Genre Citharinops :
 J. Daget, « Le genre Citharinus (Poissons, Characiformes) », Revue de zoologie et de botanique africaines, Belgique, vol. 66, nos 1-2,‎ 29 septembre 1962, p. 81-106 (ISSN 0035-1814).
